--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,9 +49,6 @@
     <t>useless</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -73,100 +70,106 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>salad</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>beautiful</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>sturdy</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>son</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>rice</t>
@@ -175,123 +178,117 @@
     <t>kids</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>old</t>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>popcorn</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>popcorn</t>
+    <t>good</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>cook</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>cook</t>
+    <t>works</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>ice</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
     <t>far</t>
   </si>
   <si>
-    <t>many</t>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>big</t>
+    <t>also</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>makes</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
@@ -299,9 +296,6 @@
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>use</t>
@@ -665,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -673,10 +667,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -734,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -752,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -776,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -805,16 +799,16 @@
         <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -826,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -834,13 +828,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -852,19 +846,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.8695652173913043</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L5">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -876,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -884,37 +878,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3584905660377358</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="C6">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>96</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>34</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K6">
-        <v>0.8606811145510835</v>
+        <v>0.8653250773993808</v>
       </c>
       <c r="L6">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="M6">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -926,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -934,13 +928,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.248062015503876</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -952,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8405797101449275</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L7">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -976,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -984,13 +978,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2051282051282051</v>
+        <v>0.1717171717171717</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1002,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.7931034482758621</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1026,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1034,13 +1028,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.202020202020202</v>
+        <v>0.0918918918918919</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1052,69 +1046,45 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L9">
+        <v>168</v>
+      </c>
+      <c r="M9">
+        <v>168</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K9">
-        <v>0.7662337662337663</v>
-      </c>
-      <c r="L9">
-        <v>59</v>
-      </c>
-      <c r="M9">
-        <v>59</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.1135135135135135</v>
-      </c>
-      <c r="C10">
-        <v>21</v>
-      </c>
-      <c r="D10">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>164</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K10">
-        <v>0.7229437229437229</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L10">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1126,21 +1096,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.6677966101694915</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L11">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="M11">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1152,21 +1122,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>98</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.6619718309859155</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1178,21 +1148,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.6590909090909091</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1209,16 +1179,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.6491228070175439</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1230,21 +1200,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.6444444444444445</v>
+        <v>0.6508474576271186</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1256,21 +1226,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6396468699839486</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L16">
-        <v>797</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>797</v>
+        <v>44</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1282,21 +1252,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>449</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6114285714285714</v>
+        <v>0.6364365971107544</v>
       </c>
       <c r="L17">
-        <v>107</v>
+        <v>793</v>
       </c>
       <c r="M17">
-        <v>107</v>
+        <v>793</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1308,21 +1278,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>68</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6029411764705882</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L18">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1334,21 +1304,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.589041095890411</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1360,21 +1330,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.5833333333333334</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1386,21 +1356,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.5714285714285714</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1412,21 +1382,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22">
+        <v>0.5625</v>
+      </c>
+      <c r="L22">
         <v>36</v>
       </c>
-      <c r="K22">
-        <v>0.5470085470085471</v>
-      </c>
-      <c r="L22">
-        <v>64</v>
-      </c>
       <c r="M22">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1438,21 +1408,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.546875</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L23">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1464,21 +1434,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5384615384615384</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="L24">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M24">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1490,21 +1460,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5180722891566265</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L25">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="M25">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1516,21 +1486,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5076923076923077</v>
+        <v>0.4790419161676647</v>
       </c>
       <c r="L26">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1542,21 +1512,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>32</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.4970059880239521</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L27">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1568,21 +1538,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>84</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.47</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L28">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1594,21 +1564,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.4603174603174603</v>
+        <v>0.4360902255639098</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1620,21 +1590,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.4583333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L30">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1646,21 +1616,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.4135338345864661</v>
+        <v>0.39</v>
       </c>
       <c r="L31">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="M31">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1672,21 +1642,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.3846153846153846</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1698,21 +1668,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>24</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.3692307692307693</v>
+        <v>0.3552631578947368</v>
       </c>
       <c r="L33">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1724,21 +1694,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.3554216867469879</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="L34">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1750,21 +1720,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.3552631578947368</v>
+        <v>0.3455882352941176</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1776,21 +1746,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>49</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.3529411764705883</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L36">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1802,21 +1772,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>264</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.3529411764705883</v>
+        <v>0.3383458646616541</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1828,21 +1798,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>33</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.3469387755102041</v>
+        <v>0.3268482490272374</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1854,21 +1824,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>32</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>0.3268482490272374</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="L39">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1880,21 +1850,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>173</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>0.3265306122448979</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="L40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1906,21 +1876,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K41">
-        <v>0.3233082706766917</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L41">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1932,21 +1902,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K42">
-        <v>0.2972972972972973</v>
+        <v>0.2741935483870968</v>
       </c>
       <c r="L42">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="M42">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1958,21 +1928,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K43">
-        <v>0.2950819672131147</v>
+        <v>0.2661870503597122</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1984,21 +1954,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>43</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K44">
-        <v>0.2839506172839506</v>
+        <v>0.2575342465753425</v>
       </c>
       <c r="L44">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2010,21 +1980,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>58</v>
+        <v>542</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K45">
-        <v>0.2727272727272727</v>
+        <v>0.2535885167464115</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2036,21 +2006,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>40</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K46">
-        <v>0.2580645161290323</v>
+        <v>0.25</v>
       </c>
       <c r="L46">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2062,21 +2032,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K47">
-        <v>0.2575342465753425</v>
+        <v>0.2342342342342342</v>
       </c>
       <c r="L47">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="M47">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2088,21 +2058,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>542</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K48">
-        <v>0.25</v>
+        <v>0.2335844994617869</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="M48">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2114,21 +2084,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>57</v>
+        <v>712</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K49">
-        <v>0.2475247524752475</v>
+        <v>0.2277227722772277</v>
       </c>
       <c r="L49">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M49">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2140,21 +2110,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K50">
-        <v>0.2392344497607655</v>
+        <v>0.2205882352941176</v>
       </c>
       <c r="L50">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M50">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2166,21 +2136,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>159</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K51">
-        <v>0.237410071942446</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L51">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M51">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2192,21 +2162,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K52">
-        <v>0.2282023681377826</v>
+        <v>0.1880877742946709</v>
       </c>
       <c r="L52">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c r="M52">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2218,21 +2188,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>717</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K53">
-        <v>0.2037617554858934</v>
+        <v>0.1801324503311258</v>
       </c>
       <c r="L53">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="M53">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2244,21 +2214,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>254</v>
+        <v>619</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K54">
-        <v>0.1944444444444444</v>
+        <v>0.1788079470198675</v>
       </c>
       <c r="L54">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M54">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2270,21 +2240,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>87</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K55">
-        <v>0.1739130434782609</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="L55">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M55">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2296,21 +2266,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K56">
-        <v>0.1695364238410596</v>
+        <v>0.170076726342711</v>
       </c>
       <c r="L56">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M56">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2322,21 +2292,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>627</v>
+        <v>649</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K57">
-        <v>0.1655629139072848</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="L57">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2348,47 +2318,47 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K58">
-        <v>0.1611253196930946</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="L58">
+        <v>23</v>
+      </c>
+      <c r="M58">
+        <v>23</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
         <v>126</v>
-      </c>
-      <c r="M58">
-        <v>126</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>656</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K59">
-        <v>0.1409395973154362</v>
+        <v>0.1441441441441441</v>
       </c>
       <c r="L59">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M59">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2400,47 +2370,47 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K60">
-        <v>0.1311475409836066</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="L60">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M60">
         <v>16</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K61">
-        <v>0.1282051282051282</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="L61">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M61">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2452,21 +2422,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K62">
-        <v>0.1219512195121951</v>
+        <v>0.1307692307692308</v>
       </c>
       <c r="L62">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M62">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2478,21 +2448,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K63">
-        <v>0.1192214111922141</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="L63">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="M63">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2504,21 +2474,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>362</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K64">
-        <v>0.1168384879725086</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L64">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M64">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2530,21 +2500,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>257</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K65">
-        <v>0.1132075471698113</v>
+        <v>0.1158536585365854</v>
       </c>
       <c r="L65">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="M65">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2556,47 +2526,47 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>329</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K66">
-        <v>0.1129943502824859</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="L66">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M66">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>157</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K67">
-        <v>0.1050420168067227</v>
+        <v>0.1021897810218978</v>
       </c>
       <c r="L67">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M67">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2608,21 +2578,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>213</v>
+        <v>369</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K68">
-        <v>0.103030303030303</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="L68">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M68">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2634,21 +2604,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K69">
-        <v>0.1022727272727273</v>
+        <v>0.09852216748768473</v>
       </c>
       <c r="L69">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M69">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2660,21 +2630,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>395</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K70">
-        <v>0.09359605911330049</v>
+        <v>0.09815950920245399</v>
       </c>
       <c r="L70">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M70">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2686,15 +2656,15 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>184</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K71">
-        <v>0.09225092250922509</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L71">
         <v>25</v>
@@ -2712,21 +2682,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K72">
-        <v>0.09202453987730061</v>
+        <v>0.08487084870848709</v>
       </c>
       <c r="L72">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M72">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2738,21 +2708,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>148</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K73">
-        <v>0.08518518518518518</v>
+        <v>0.08409090909090909</v>
       </c>
       <c r="L73">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M73">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2764,21 +2734,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>247</v>
+        <v>403</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K74">
-        <v>0.08353221957040573</v>
+        <v>0.07236842105263158</v>
       </c>
       <c r="L74">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M74">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2790,21 +2760,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>384</v>
+        <v>423</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K75">
-        <v>0.08114035087719298</v>
+        <v>0.06446991404011461</v>
       </c>
       <c r="L75">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="M75">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2816,21 +2786,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>419</v>
+        <v>653</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K76">
-        <v>0.06623134328358209</v>
+        <v>0.05727923627684964</v>
       </c>
       <c r="L76">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="M76">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2842,47 +2812,47 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>1001</v>
+        <v>395</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K77">
-        <v>0.05882352941176471</v>
+        <v>0.05130597014925373</v>
       </c>
       <c r="L77">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M77">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="N77">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>656</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K78">
-        <v>0.05191256830601093</v>
+        <v>0.04644808743169399</v>
       </c>
       <c r="L78">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M78">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2894,12 +2864,12 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K79">
         <v>0.04314720812182741</v>
@@ -2925,16 +2895,16 @@
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K80">
-        <v>0.03505535055350553</v>
+        <v>0.04059040590405904</v>
       </c>
       <c r="L80">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M80">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2946,59 +2916,33 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K81">
-        <v>0.03262955854126679</v>
+        <v>0.02512998266897747</v>
       </c>
       <c r="L81">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M81">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N81">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O81">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="82" spans="10:17">
-      <c r="J82" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K82">
-        <v>0.02247191011235955</v>
-      </c>
-      <c r="L82">
-        <v>26</v>
-      </c>
-      <c r="M82">
-        <v>26</v>
-      </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>1131</v>
+        <v>1125</v>
       </c>
     </row>
   </sheetData>
